--- a/original/3-4_要件定義計画/4_要件定義計画成果物サンプル＆ガイド/要件定義計画成果物一覧.xlsx
+++ b/original/3-4_要件定義計画/4_要件定義計画成果物サンプル＆ガイド/要件定義計画成果物一覧.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">要件定義計画成果物一覧!$A$1:$G$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">要件定義計画成果物一覧!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -388,16 +388,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="16"/>
   </si>
@@ -460,6 +450,16 @@
 </t>
     <rPh sb="12" eb="13">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1248,7 +1248,9 @@
   </sheetPr>
   <dimension ref="A1:AH508"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2357,9 +2359,7 @@
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
-      <c r="R31" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="R31" s="32"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
@@ -2488,12 +2488,12 @@
     <row r="35" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -2508,7 +2508,7 @@
       <c r="P35" s="34"/>
       <c r="Q35" s="37"/>
       <c r="R35" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S35" s="34"/>
       <c r="T35" s="21"/>
@@ -2527,7 +2527,11 @@
       <c r="AG35" s="21"/>
       <c r="AH35" s="21"/>
     </row>
-    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="37" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3006,7 +3010,7 @@
     <hyperlink ref="E35" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -3034,7 +3038,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -3164,7 +3168,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3185,7 +3189,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="19"/>
     </row>
@@ -3195,7 +3199,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C－&amp;P－</oddFooter>
   </headerFooter>

--- a/original/3-4_要件定義計画/4_要件定義計画成果物サンプル＆ガイド/要件定義計画成果物一覧.xlsx
+++ b/original/3-4_要件定義計画/4_要件定義計画成果物サンプル＆ガイド/要件定義計画成果物一覧.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D59915-3BF8-4D5A-B907-F254FC666E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="14940" windowHeight="7935"/>
+    <workbookView xWindow="1320" yWindow="2130" windowWidth="21555" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="15" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -388,17 +389,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>要件定義計画成果物一覧</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
@@ -453,22 +443,12 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,12 +551,6 @@
       <sz val="9"/>
       <name val="HGPｺﾞｼｯｸM"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -687,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -804,7 +778,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,6 +803,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -851,7 +828,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -938,52 +921,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>122712</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6029325"/>
-          <a:ext cx="838200" cy="294162"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1242,15 +1179,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AH508"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2487,14 +2422,10 @@
     </row>
     <row r="35" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
-      <c r="B35" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="38" t="s">
-        <v>33</v>
-      </c>
+      <c r="E35" s="38"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -2507,9 +2438,7 @@
       <c r="O35" s="34"/>
       <c r="P35" s="34"/>
       <c r="Q35" s="37"/>
-      <c r="R35" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="R35" s="37"/>
       <c r="S35" s="34"/>
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
@@ -2527,11 +2456,7 @@
       <c r="AG35" s="21"/>
       <c r="AH35" s="21"/>
     </row>
-    <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
+    <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3006,17 +2931,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E35" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3038,7 +2960,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -3168,7 +3090,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3189,7 +3111,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="19"/>
     </row>
